--- a/지그비 모듈 현황.xlsx
+++ b/지그비 모듈 현황.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,30 @@
   </si>
   <si>
     <t>rssi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1115,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1286,6 +1310,9 @@
       <c r="A18" t="s">
         <v>54</v>
       </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
       <c r="C18">
         <v>119</v>
       </c>
@@ -1294,6 +1321,9 @@
       <c r="A19" t="s">
         <v>77</v>
       </c>
+      <c r="B19">
+        <v>20000</v>
+      </c>
       <c r="C19">
         <v>20000</v>
       </c>
@@ -1313,6 +1343,9 @@
       <c r="A21" t="s">
         <v>59</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -1321,6 +1354,9 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
       <c r="C22" t="s">
         <v>78</v>
       </c>
@@ -1329,6 +1365,9 @@
       <c r="A23" t="s">
         <v>61</v>
       </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
@@ -1337,6 +1376,9 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
@@ -1345,6 +1387,9 @@
       <c r="A25" t="s">
         <v>65</v>
       </c>
+      <c r="B25">
+        <v>9600</v>
+      </c>
       <c r="C25">
         <v>9600</v>
       </c>
@@ -1367,7 +1412,9 @@
       <c r="A27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
@@ -1379,6 +1426,9 @@
       <c r="A28" t="s">
         <v>80</v>
       </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
@@ -1387,6 +1437,9 @@
       <c r="A29" t="s">
         <v>66</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -1395,6 +1448,9 @@
       <c r="A30" t="s">
         <v>67</v>
       </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -1403,6 +1459,9 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
@@ -1411,6 +1470,9 @@
       <c r="A32" t="s">
         <v>69</v>
       </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -1419,6 +1481,9 @@
       <c r="A33" t="s">
         <v>70</v>
       </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
@@ -1427,6 +1492,9 @@
       <c r="A34" t="s">
         <v>71</v>
       </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
       <c r="C34" t="s">
         <v>84</v>
       </c>
@@ -1435,6 +1503,9 @@
       <c r="A35" t="s">
         <v>72</v>
       </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
       <c r="C35" t="s">
         <v>85</v>
       </c>
@@ -1443,6 +1514,9 @@
       <c r="A36" t="s">
         <v>73</v>
       </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
       <c r="C36" t="s">
         <v>86</v>
       </c>
@@ -1451,6 +1525,9 @@
       <c r="A37" t="s">
         <v>74</v>
       </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
       <c r="C37" t="s">
         <v>82</v>
       </c>
@@ -1458,6 +1535,9 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
